--- a/REGULAR/TOLENTINO, AGNES D.xlsx
+++ b/REGULAR/TOLENTINO, AGNES D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54F4C4-B5F6-411A-93E1-CD54D13B6F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62A939-A8A6-4CD4-AFD5-E6AEB42B40D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -174,6 +166,30 @@
   </si>
   <si>
     <t>CO-TERMINUS</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>BANGKOK THAILAND 3/10,12</t>
   </si>
 </sst>
 </file>
@@ -410,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,9 +437,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -490,10 +503,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,13 +515,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -587,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +879,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1195,23 +1208,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -1219,116 +1232,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1355,1973 +1359,2289 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36" t="s">
+      <c r="A10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
+      <c r="A11" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
+      <c r="A12" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="A13" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="A14" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="A15" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="A19" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="A20" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="A21" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="A22" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="A23" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="A24" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="A26" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="A27" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="A29" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="A30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="A31" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
+      <c r="A32" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
+      <c r="A33" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
+      <c r="A34" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="A35" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="A36" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="A37" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="A38" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="A39" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="A40" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="A41" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39">
+        <v>5</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="A43" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="A44" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="A45" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="A46" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="A47" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="A48" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="A49" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="A50" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="A51" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="A52" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="A53" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39">
+        <v>5</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="A59" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39">
+        <v>2</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="A60" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="A61" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="A62" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="A63" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
+      <c r="A64" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
+      <c r="A65" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="A66" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="A67" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="A68" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="A69" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="A70" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="A71" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="A72" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
+      <c r="A73" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="A74" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="A75" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="A76" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="A77" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="A78" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="A79" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="A80" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="A81" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="A82" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="41"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="42"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="41"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="41"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="41"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="42"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="42"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="41"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="41"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="41"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="45"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3381,28 +3701,28 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3414,7 +3734,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3423,32 +3743,32 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="47">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="37">
+      <c r="J3" s="47"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="47" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
@@ -3458,972 +3778,972 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="46"/>
+      <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="39">
+      <c r="C28" s="37">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="39">
+      <c r="C29" s="37">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
+      <c r="C36" s="37">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="39">
+      <c r="C38" s="37">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="39">
+      <c r="C39" s="37">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="39">
+      <c r="C40" s="37">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="39">
+      <c r="C41" s="37">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="39">
+      <c r="C42" s="37">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="39">
+      <c r="C43" s="37">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="39">
+      <c r="C44" s="37">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39">
+      <c r="C45" s="37">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="39">
+      <c r="C46" s="37">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="39">
+      <c r="C47" s="37">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="39">
+      <c r="C48" s="37">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39">
+      <c r="C49" s="37">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="39">
+      <c r="C50" s="37">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="39">
+      <c r="C58" s="37">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="39">
+      <c r="C59" s="37">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="39">
+      <c r="C60" s="37">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="39">
+      <c r="C61" s="37">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="39">
+      <c r="C62" s="37">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39">
+      <c r="C63" s="37">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39">
+      <c r="C64" s="37">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39">
+      <c r="C65" s="37">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39">
+      <c r="C66" s="37">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>

--- a/REGULAR/TOLENTINO, AGNES D.xlsx
+++ b/REGULAR/TOLENTINO, AGNES D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62A939-A8A6-4CD4-AFD5-E6AEB42B40D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F7158-2969-4E86-9966-06A90B0499B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -191,6 +191,45 @@
   <si>
     <t>BANGKOK THAILAND 3/10,12</t>
   </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>VICE MAYOR</t>
+  </si>
+  <si>
+    <t>VMO</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>END OF TERM</t>
+  </si>
+  <si>
+    <t>ELECTED AS MAYOR</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>SINGAPORE 7/11-13/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +241,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +275,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,6 +611,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,7 +647,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +914,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -879,7 +931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K212" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1208,12 +1260,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="3576" topLeftCell="A130" activePane="bottomLeft"/>
+      <selection activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,60 +1287,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="56">
+        <v>41456</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1314,18 +1372,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1372,7 +1430,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1382,14 +1440,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>44</v>
+      <c r="A10" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1410,366 +1468,368 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B11" s="20"/>
+      <c r="A11" s="60">
+        <v>41486</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>61</v>
+      </c>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
-        <v>43678</v>
+      <c r="A12" s="60">
+        <v>41517</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
-        <v>43709</v>
+      <c r="A13" s="60">
+        <v>41547</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
-        <v>43739</v>
+      <c r="A14" s="60">
+        <v>41578</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
-        <v>43770</v>
+      <c r="A15" s="60">
+        <v>41608</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="60">
+        <v>41639</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="15"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
-        <v>43831</v>
+      <c r="A18" s="60">
+        <v>41670</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <v>43862</v>
+      <c r="A19" s="60">
+        <v>41698</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
-        <v>43891</v>
+      <c r="A20" s="60">
+        <v>41729</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
-        <v>43922</v>
+      <c r="A21" s="60">
+        <v>41759</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
-        <v>43952</v>
+      <c r="A22" s="60">
+        <v>41790</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
-        <v>43983</v>
+      <c r="A23" s="60">
+        <v>41820</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
         <v>1.25</v>
       </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
-        <v>44013</v>
+      <c r="A24" s="60">
+        <v>41851</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
-        <v>44044</v>
+      <c r="A25" s="60">
+        <v>41882</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
-        <v>44075</v>
+      <c r="A26" s="60">
+        <v>41912</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>44105</v>
+      <c r="A27" s="60">
+        <v>41943</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
-        <v>44136</v>
+      <c r="A28" s="60">
+        <v>41973</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
-        <v>44166</v>
+      <c r="A29" s="60">
+        <v>42004</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -1780,258 +1840,258 @@
       <c r="D29" s="39">
         <v>5</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
-        <v>48</v>
+      <c r="A30" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
-        <v>44197</v>
+      <c r="A31" s="60">
+        <v>42035</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
-        <v>44228</v>
+      <c r="A32" s="60">
+        <v>42063</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
-        <v>44256</v>
+      <c r="A33" s="60">
+        <v>42094</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
-        <v>44287</v>
+      <c r="A34" s="60">
+        <v>42124</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
-        <v>44317</v>
+      <c r="A35" s="60">
+        <v>42155</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
       <c r="D35" s="39"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
-        <v>44348</v>
+      <c r="A36" s="60">
+        <v>42185</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
-        <v>44378</v>
+      <c r="A37" s="60">
+        <v>42216</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
-        <v>44409</v>
+      <c r="A38" s="60">
+        <v>42247</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
-        <v>44440</v>
+      <c r="A39" s="60">
+        <v>42277</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
-        <v>44470</v>
+      <c r="A40" s="60">
+        <v>42308</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40">
-        <v>44501</v>
+      <c r="A41" s="60">
+        <v>42338</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
-        <v>44531</v>
+      <c r="A42" s="60">
+        <v>42369</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>46</v>
@@ -2042,258 +2102,258 @@
       <c r="D42" s="39">
         <v>5</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
-        <v>49</v>
+      <c r="A43" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
-        <v>44562</v>
+      <c r="A44" s="60">
+        <v>42400</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40">
-        <v>44593</v>
+      <c r="A45" s="60">
+        <v>42429</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
       <c r="D45" s="39"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="34"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
-        <v>44621</v>
+      <c r="A46" s="60">
+        <v>42460</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>44652</v>
+      <c r="A47" s="60">
+        <v>42490</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
-        <v>44682</v>
+      <c r="A48" s="60">
+        <v>42521</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
       <c r="D48" s="39"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40">
-        <v>44713</v>
+      <c r="A49" s="60">
+        <v>42551</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
       <c r="D49" s="39"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="34"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
-        <v>44743</v>
+      <c r="A50" s="60">
+        <v>42582</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40">
-        <v>44774</v>
+      <c r="A51" s="60">
+        <v>42613</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="34"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
-        <v>44805</v>
+      <c r="A52" s="60">
+        <v>42643</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="34"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
-        <v>44835</v>
+      <c r="A53" s="60">
+        <v>42674</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
       <c r="D53" s="39"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="34"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
-        <v>44866</v>
+      <c r="A54" s="60">
+        <v>42704</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40">
-        <v>44896</v>
+      <c r="A55" s="60">
+        <v>42735</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -2304,619 +2364,693 @@
       <c r="D55" s="39">
         <v>5</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="34"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
-        <v>47</v>
+      <c r="A56" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
-        <v>44927</v>
+      <c r="A57" s="60">
+        <v>42766</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
-        <v>44958</v>
+      <c r="A58" s="60">
+        <v>42794</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="39">
-        <v>2</v>
-      </c>
-      <c r="E59" s="9"/>
+      <c r="A59" s="60">
+        <v>42825</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
-        <v>45017</v>
+      <c r="A60" s="60">
+        <v>42855</v>
       </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
-        <v>45047</v>
+      <c r="A61" s="60">
+        <v>42886</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
-        <v>45078</v>
+      <c r="A62" s="60">
+        <v>42916</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
-        <v>45108</v>
+      <c r="A63" s="60">
+        <v>42947</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
-        <v>45139</v>
+      <c r="A64" s="60">
+        <v>42978</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40">
-        <v>45170</v>
+      <c r="A65" s="60">
+        <v>43008</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
-        <v>45200</v>
+      <c r="A66" s="60">
+        <v>43039</v>
       </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40">
-        <v>45231</v>
+      <c r="A67" s="60">
+        <v>43069</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="60">
+        <v>43100</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39">
+        <v>5</v>
+      </c>
+      <c r="E68" s="34"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="34"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
-        <v>45292</v>
+      <c r="A69" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H69" s="39"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="34"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40">
-        <v>45323</v>
+      <c r="A70" s="60">
+        <v>43131</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="34"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40">
-        <v>45352</v>
+      <c r="A71" s="60">
+        <v>43159</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="34"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40">
-        <v>45383</v>
+      <c r="A72" s="60">
+        <v>43190</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="34"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40">
-        <v>45413</v>
+      <c r="A73" s="60">
+        <v>43220</v>
       </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="34"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
-        <v>45444</v>
+      <c r="A74" s="60">
+        <v>43251</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
-        <v>45474</v>
+      <c r="A75" s="60">
+        <v>43281</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
-        <v>45505</v>
+      <c r="A76" s="60">
+        <v>43312</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="34"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>45536</v>
+      <c r="A77" s="60">
+        <v>43343</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="34"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>45566</v>
+      <c r="A78" s="60">
+        <v>43373</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="34"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
-        <v>45597</v>
+      <c r="A79" s="60">
+        <v>43404</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
-        <v>45627</v>
+      <c r="A80" s="60">
+        <v>43434</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="60">
+        <v>43465</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="39">
+        <v>5</v>
+      </c>
+      <c r="E81" s="34"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40">
-        <v>45689</v>
+      <c r="A82" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H82" s="39"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="60">
+        <v>43496</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="34"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="60">
+        <v>43524</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="34"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="60">
+        <v>43555</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="34"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="60">
+        <v>43585</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="34"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="60">
+        <v>43616</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="34"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="60">
+        <v>43646</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="34"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>43647</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -2924,15 +3058,19 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>43678</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -2940,15 +3078,19 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>43709</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -2956,15 +3098,19 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>43739</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -2972,15 +3118,19 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>43770</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -2988,47 +3138,61 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="A94" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D94" s="43">
+        <v>5</v>
+      </c>
       <c r="E94" s="9"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="43"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="15"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="43"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="15"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>43831</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3036,15 +3200,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>43862</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -3052,15 +3220,19 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>43891</v>
+      </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -3068,15 +3240,19 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>43922</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -3084,15 +3260,19 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>43952</v>
+      </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -3100,15 +3280,19 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>43983</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -3116,15 +3300,19 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>44013</v>
+      </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -3132,15 +3320,19 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>44044</v>
+      </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
@@ -3148,15 +3340,19 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>44075</v>
+      </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -3164,15 +3360,19 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>44105</v>
+      </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -3180,15 +3380,19 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>44136</v>
+      </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -3196,15 +3400,23 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
+      <c r="A107" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D107" s="39">
+        <v>5</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
@@ -3212,7 +3424,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="48" t="s">
+        <v>48</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3228,15 +3442,19 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>44227</v>
+      </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -3244,15 +3462,19 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>44255</v>
+      </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
@@ -3260,15 +3482,19 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>44286</v>
+      </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
@@ -3276,15 +3502,19 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>44316</v>
+      </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -3292,15 +3522,19 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>44347</v>
+      </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -3308,15 +3542,19 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>44377</v>
+      </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -3324,15 +3562,19 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>44408</v>
+      </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
@@ -3340,15 +3582,19 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>44439</v>
+      </c>
       <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
@@ -3356,15 +3602,19 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>44469</v>
+      </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
@@ -3372,15 +3622,19 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>44500</v>
+      </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
@@ -3388,15 +3642,19 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>44530</v>
+      </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
@@ -3404,15 +3662,23 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
+      <c r="A120" s="40">
+        <v>44561</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D120" s="39">
+        <v>5</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -3420,7 +3686,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3436,15 +3704,19 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>44592</v>
+      </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
@@ -3452,15 +3724,19 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>44620</v>
+      </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
@@ -3468,15 +3744,19 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>44651</v>
+      </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
@@ -3484,15 +3764,19 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>44681</v>
+      </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
@@ -3500,15 +3784,19 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>44712</v>
+      </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
@@ -3516,15 +3804,21 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="A127" s="40">
+        <v>44742</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
@@ -3532,15 +3826,19 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>44773</v>
+      </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
@@ -3548,15 +3846,19 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>44804</v>
+      </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
@@ -3564,15 +3866,19 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>44834</v>
+      </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="39"/>
       <c r="I130" s="9"/>
@@ -3580,15 +3886,19 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>44865</v>
+      </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -3596,15 +3906,19 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>44895</v>
+      </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
@@ -3612,15 +3926,23 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+      <c r="A133" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D133" s="39">
+        <v>5</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
@@ -3628,20 +3950,1346 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D137" s="39">
+        <v>2</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39">
+        <v>3</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="39"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="40"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="40"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="40"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="39"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="40"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="39"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="40"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="39"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="40"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="39"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="20"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="39"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="20"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="40"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H177" s="39"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="40"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="40"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="39"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="20"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="40"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="39"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="20"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="40"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H181" s="39"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="20"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="40"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H182" s="39"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="39"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="40"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="39"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="40"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H187" s="39"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="40"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H188" s="39"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H189" s="39"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="40"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="39"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="40"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="39"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="40"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="39"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="40"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="39"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="40"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="40"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="39"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="40"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H197" s="39"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="40"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="39"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="40"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="39"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="40"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="39"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="40"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="39"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="40"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H202" s="39"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="40"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H203" s="39"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="40"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H204" s="39"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="20"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="40"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H205" s="39"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="20"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="40"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H206" s="39"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="20"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="40"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H207" s="39"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="20"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="40"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H208" s="39"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="20"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="40"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H209" s="39"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="20"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="40"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="40"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H211" s="39"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="20"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="41"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="43"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H212" s="43"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3688,7 +5336,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3706,17 +5354,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -3778,6 +5426,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3791,14 +5442,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>250</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/TOLENTINO, AGNES D.xlsx
+++ b/REGULAR/TOLENTINO, AGNES D.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF6E53-C230-4588-8905-E0F834407A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,12 +231,15 @@
   </si>
   <si>
     <t>11/2-6/2023 JAPAN</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -885,7 +887,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -914,7 +915,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -931,25 +932,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K212" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K213" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1256,34 +1257,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K212"/>
+  <dimension ref="A2:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A136" activePane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <pane ySplit="3690" topLeftCell="A130" activePane="bottomLeft"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1305,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1327,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1349,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1356,7 +1357,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1369,7 +1370,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1386,7 +1387,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1430,7 +1431,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103</v>
+        <v>106.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1440,12 +1441,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155</v>
+        <v>158.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>52</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>41486</v>
       </c>
@@ -1489,7 +1490,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>41517</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>41547</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>41578</v>
       </c>
@@ -1549,7 +1550,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>41608</v>
       </c>
@@ -1569,7 +1570,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>41639</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1608,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>41670</v>
       </c>
@@ -1627,7 +1628,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>41698</v>
       </c>
@@ -1647,7 +1648,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>41729</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>41759</v>
       </c>
@@ -1687,7 +1688,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>41790</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>41820</v>
       </c>
@@ -1727,7 +1728,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>41851</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>41882</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>41912</v>
       </c>
@@ -1787,7 +1788,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>41943</v>
       </c>
@@ -1807,7 +1808,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>41973</v>
       </c>
@@ -1827,7 +1828,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>42004</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>56</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>42035</v>
       </c>
@@ -1889,7 +1890,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>42063</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>42094</v>
       </c>
@@ -1929,7 +1930,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>42124</v>
       </c>
@@ -1949,7 +1950,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>42155</v>
       </c>
@@ -1969,7 +1970,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>42185</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>42216</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>42247</v>
       </c>
@@ -2029,7 +2030,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>42277</v>
       </c>
@@ -2049,7 +2050,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>42308</v>
       </c>
@@ -2069,7 +2070,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>42338</v>
       </c>
@@ -2089,7 +2090,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>42369</v>
       </c>
@@ -2113,7 +2114,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2132,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>42400</v>
       </c>
@@ -2151,7 +2152,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>42429</v>
       </c>
@@ -2171,7 +2172,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>42460</v>
       </c>
@@ -2191,7 +2192,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>42490</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>42521</v>
       </c>
@@ -2231,7 +2232,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>42551</v>
       </c>
@@ -2251,7 +2252,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>42582</v>
       </c>
@@ -2271,7 +2272,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>42613</v>
       </c>
@@ -2291,7 +2292,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>42643</v>
       </c>
@@ -2311,7 +2312,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>42674</v>
       </c>
@@ -2331,7 +2332,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>42704</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>42735</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>58</v>
       </c>
@@ -2393,7 +2394,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>42766</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>42794</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>42825</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>42855</v>
       </c>
@@ -2473,7 +2474,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>42886</v>
       </c>
@@ -2493,7 +2494,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>42916</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>42947</v>
       </c>
@@ -2533,7 +2534,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>42978</v>
       </c>
@@ -2553,7 +2554,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>43008</v>
       </c>
@@ -2573,7 +2574,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>43039</v>
       </c>
@@ -2593,7 +2594,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>43069</v>
       </c>
@@ -2613,7 +2614,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>43100</v>
       </c>
@@ -2637,7 +2638,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>59</v>
       </c>
@@ -2655,7 +2656,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>43131</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>43159</v>
       </c>
@@ -2695,7 +2696,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43190</v>
       </c>
@@ -2715,7 +2716,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>43220</v>
       </c>
@@ -2735,7 +2736,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>43251</v>
       </c>
@@ -2755,7 +2756,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>43281</v>
       </c>
@@ -2775,7 +2776,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>43312</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>43343</v>
       </c>
@@ -2815,7 +2816,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>43373</v>
       </c>
@@ -2835,7 +2836,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>43404</v>
       </c>
@@ -2855,7 +2856,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>43434</v>
       </c>
@@ -2875,7 +2876,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>43465</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>44</v>
       </c>
@@ -2917,7 +2918,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>43496</v>
       </c>
@@ -2937,7 +2938,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>43524</v>
       </c>
@@ -2957,7 +2958,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>43555</v>
       </c>
@@ -2977,7 +2978,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>43585</v>
       </c>
@@ -2997,7 +2998,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>43616</v>
       </c>
@@ -3017,7 +3018,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43646</v>
       </c>
@@ -3037,7 +3038,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>43647</v>
       </c>
@@ -3057,7 +3058,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>43678</v>
       </c>
@@ -3077,7 +3078,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>43709</v>
       </c>
@@ -3097,7 +3098,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>43739</v>
       </c>
@@ -3117,7 +3118,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>43770</v>
       </c>
@@ -3137,7 +3138,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>43800</v>
       </c>
@@ -3161,7 +3162,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>45</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>43831</v>
       </c>
@@ -3199,7 +3200,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>43862</v>
       </c>
@@ -3219,7 +3220,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>43891</v>
       </c>
@@ -3239,7 +3240,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>43922</v>
       </c>
@@ -3259,7 +3260,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43952</v>
       </c>
@@ -3279,7 +3280,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>43983</v>
       </c>
@@ -3299,7 +3300,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44013</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44044</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44075</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44105</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44136</v>
       </c>
@@ -3399,7 +3400,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44166</v>
       </c>
@@ -3423,7 +3424,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>48</v>
       </c>
@@ -3441,7 +3442,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44227</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44255</v>
       </c>
@@ -3481,7 +3482,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44286</v>
       </c>
@@ -3501,7 +3502,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>44316</v>
       </c>
@@ -3521,7 +3522,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44347</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>44377</v>
       </c>
@@ -3561,7 +3562,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44408</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44439</v>
       </c>
@@ -3601,7 +3602,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44469</v>
       </c>
@@ -3621,7 +3622,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44500</v>
       </c>
@@ -3641,7 +3642,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>44530</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44561</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>49</v>
       </c>
@@ -3703,7 +3704,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44592</v>
       </c>
@@ -3723,7 +3724,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44620</v>
       </c>
@@ -3743,7 +3744,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44651</v>
       </c>
@@ -3763,7 +3764,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44681</v>
       </c>
@@ -3783,7 +3784,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>44712</v>
       </c>
@@ -3803,7 +3804,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>44742</v>
       </c>
@@ -3825,7 +3826,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>44773</v>
       </c>
@@ -3845,7 +3846,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>44804</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>44834</v>
       </c>
@@ -3885,7 +3886,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>44865</v>
       </c>
@@ -3905,7 +3906,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>44895</v>
       </c>
@@ -3925,7 +3926,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>44926</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>47</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>44927</v>
       </c>
@@ -3987,7 +3988,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>44958</v>
       </c>
@@ -4007,7 +4008,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>44986</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45017</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45047</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45078</v>
       </c>
@@ -4093,7 +4094,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45108</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45139</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>45170</v>
       </c>
@@ -4159,7 +4160,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>45200</v>
       </c>
@@ -4185,45 +4186,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>45231</v>
       </c>
       <c r="B145" s="20"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G145" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>45261</v>
       </c>
       <c r="B146" s="20"/>
-      <c r="C146" s="13"/>
+      <c r="C146" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D146" s="39"/>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G146" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="40">
-        <v>45292</v>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4239,27 +4244,29 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B148" s="20"/>
-      <c r="C148" s="13"/>
+      <c r="C148" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D148" s="39"/>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G148" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H148" s="39"/>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4275,9 +4282,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4293,9 +4300,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4311,9 +4318,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4329,9 +4336,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4347,9 +4354,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4365,9 +4372,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4383,9 +4390,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4401,9 +4408,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4419,9 +4426,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4437,9 +4444,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4455,9 +4462,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4473,8 +4480,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="40"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <v>45689</v>
+      </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
       <c r="D161" s="39"/>
@@ -4489,7 +4498,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4505,7 +4514,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4521,7 +4530,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4537,7 +4546,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4553,7 +4562,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -4569,7 +4578,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -4585,7 +4594,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -4601,7 +4610,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -4617,7 +4626,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -4633,7 +4642,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -4649,7 +4658,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -4665,7 +4674,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -4681,7 +4690,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -4697,7 +4706,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -4713,7 +4722,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -4729,7 +4738,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -4745,7 +4754,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -4761,7 +4770,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -4777,7 +4786,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -4793,7 +4802,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -4809,7 +4818,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -4825,7 +4834,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -4841,7 +4850,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -4857,7 +4866,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -4873,7 +4882,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -4889,7 +4898,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -4905,7 +4914,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -4921,7 +4930,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -4937,7 +4946,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -4953,7 +4962,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -4969,7 +4978,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -4985,7 +4994,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5001,7 +5010,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5017,7 +5026,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5033,7 +5042,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5049,7 +5058,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5065,7 +5074,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5081,7 +5090,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5097,7 +5106,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5113,7 +5122,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5129,7 +5138,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5145,7 +5154,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5161,7 +5170,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5177,7 +5186,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5193,7 +5202,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5209,7 +5218,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5225,7 +5234,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5241,7 +5250,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5257,7 +5266,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5273,7 +5282,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5289,21 +5298,37 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="41"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="42"/>
-      <c r="D212" s="43"/>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" s="40"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="39"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H212" s="43"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H212" s="39"/>
       <c r="I212" s="9"/>
-      <c r="J212" s="12"/>
-      <c r="K212" s="15"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="20"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="41"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H213" s="43"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5320,10 +5345,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5346,28 +5371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5380,7 +5405,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5409,7 +5434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5429,17 +5454,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -5463,10 +5488,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>258</v>
+        <v>265.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5494,7 +5519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5520,7 +5545,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5546,7 +5571,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5572,7 +5597,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5598,7 +5623,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5624,7 +5649,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5650,7 +5675,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5676,7 +5701,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5696,7 +5721,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5716,7 +5741,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5736,7 +5761,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5757,7 +5782,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5778,7 +5803,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5820,7 +5845,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5841,7 +5866,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5862,7 +5887,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5883,7 +5908,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5904,7 +5929,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5925,7 +5950,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5946,7 +5971,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5967,7 +5992,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5988,7 +6013,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6009,7 +6034,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6030,7 +6055,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6051,7 +6076,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6072,7 +6097,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6093,7 +6118,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6114,7 +6139,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6135,7 +6160,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6156,7 +6181,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6165,7 +6190,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6174,7 +6199,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6183,7 +6208,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6192,7 +6217,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6201,7 +6226,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6210,7 +6235,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6219,7 +6244,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6228,7 +6253,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6237,7 +6262,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6246,7 +6271,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6255,7 +6280,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6264,7 +6289,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6273,7 +6298,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6282,7 +6307,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6291,7 +6316,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6300,7 +6325,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6309,7 +6334,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6318,7 +6343,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6327,7 +6352,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6336,7 +6361,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6345,7 +6370,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6354,7 +6379,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6363,7 +6388,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6372,7 +6397,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6381,7 +6406,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6390,7 +6415,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6399,7 +6424,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6408,7 +6433,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6417,7 +6442,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
